--- a/projects/SEB_calibration_DOE_2013.xlsx
+++ b/projects/SEB_calibration_DOE_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="774">
   <si>
     <t>type</t>
   </si>
@@ -2353,6 +2353,15 @@
   </si>
   <si>
     <t>SEB4 baseboard DOE 2013</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
   </si>
 </sst>
 </file>
@@ -6647,8 +6656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6905,14 +6914,25 @@
       <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="B24" s="28">
+        <v>1E+18</v>
+      </c>
       <c r="C24" s="29"/>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>773</v>
+      </c>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">

--- a/projects/SEB_calibration_DOE_2013.xlsx
+++ b/projects/SEB_calibration_DOE_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="775">
   <si>
     <t>type</t>
   </si>
@@ -2361,7 +2361,10 @@
     <t>Debug Messages</t>
   </si>
   <si>
-    <t xml:space="preserve">1 or 0 </t>
+    <t>Return Value for F(x) if F fails</t>
+  </si>
+  <si>
+    <t>1 or 0 (True or False)</t>
   </si>
 </sst>
 </file>
@@ -6657,7 +6660,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6920,7 +6923,9 @@
       <c r="B24" s="28">
         <v>1E+18</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="29" t="s">
+        <v>773</v>
+      </c>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -6931,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D25" s="33"/>
     </row>

--- a/projects/SEB_calibration_DOE_2013.xlsx
+++ b/projects/SEB_calibration_DOE_2013.xlsx
@@ -6659,8 +6659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6933,7 +6933,7 @@
         <v>772</v>
       </c>
       <c r="B25" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>774</v>

--- a/projects/SEB_calibration_DOE_2013.xlsx
+++ b/projects/SEB_calibration_DOE_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -6659,7 +6659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -7079,11 +7079,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7602,167 +7602,166 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>750</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>753</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>753</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="B23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0</v>
+      </c>
+      <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <v>100</v>
+      </c>
+      <c r="M25" s="40">
+        <v>15</v>
+      </c>
+      <c r="N25" s="40">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="40">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="61"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="R25" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="61"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
-        <v>100</v>
-      </c>
-      <c r="M26" s="40">
-        <v>15</v>
-      </c>
-      <c r="N26" s="40">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="40">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
+    </row>
+    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="61"/>
+      <c r="G27" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="54">
+        <v>0</v>
+      </c>
+      <c r="K27" s="56">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="56">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="54" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="F27" s="61"/>
-      <c r="G27" s="29" t="s">
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="56">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="54" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="61"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="62"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7775,10 +7774,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="62"/>
       <c r="G30" s="29" t="s">
@@ -7793,10 +7792,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="62"/>
       <c r="G31" s="29" t="s">
@@ -7811,123 +7810,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="62"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="37"/>
+    </row>
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="62"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="50">
+        <v>0</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="52">
+        <v>40</v>
+      </c>
+      <c r="M35" s="52">
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="52">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>44</v>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="50" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="62"/>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="52">
-        <v>40</v>
-      </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="50" t="s">
-        <v>751</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -7935,11 +7943,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="62"/>
       <c r="G37" s="29" t="s">
@@ -7963,14 +7971,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="62"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -7990,18 +7998,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="62"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8017,18 +8025,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="62"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8044,18 +8052,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="62"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8071,18 +8079,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="62"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8091,123 +8099,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="B43" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="62"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="38">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="40">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="40">
+        <v>80</v>
+      </c>
+      <c r="M45" s="40">
+        <v>0</v>
+      </c>
+      <c r="N45" s="40">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="40">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="62"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="R45" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="62"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="40">
-        <v>80</v>
-      </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="40">
-        <v>1</v>
-      </c>
-      <c r="R46" s="38" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="62"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="61"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8223,17 +8225,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8244,19 +8246,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="61"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8265,17 +8264,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8283,141 +8285,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="61"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="62"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="61"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="62"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="41"/>
+      <c r="K55" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="40">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="40">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>694</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R55" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="40">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="40">
-        <v>1</v>
-      </c>
-      <c r="R56" s="38" t="s">
-        <v>751</v>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8425,16 +8424,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8443,10 +8445,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8464,40 +8466,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="62"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8506,17 +8505,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="62"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8524,20 +8526,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="62"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8545,120 +8547,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="62"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="62"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>701</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="62"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I66" s="38">
+        <v>4</v>
+      </c>
+      <c r="J66" s="41"/>
+      <c r="K66" s="40">
+        <v>2</v>
+      </c>
+      <c r="L66" s="40">
+        <v>5</v>
+      </c>
+      <c r="M66" s="40">
+        <v>4</v>
+      </c>
+      <c r="N66" s="40">
+        <f>(L66-K66)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="O66" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="R66" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="38">
-        <v>4</v>
-      </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
-        <v>5</v>
-      </c>
-      <c r="M67" s="40">
-        <v>4</v>
-      </c>
-      <c r="N67" s="40">
-        <f>(L67-K67)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="O67" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="R67" s="38" t="s">
-        <v>751</v>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="62"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8666,16 +8665,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="62"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8684,10 +8686,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="62"/>
       <c r="G69" s="29" t="s">
@@ -8705,17 +8707,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="62"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8726,19 +8728,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="62"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8747,17 +8746,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="62"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8765,20 +8767,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="62"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8786,79 +8788,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="62"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="48"/>
+      <c r="G77" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="62"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="38">
+        <v>0</v>
+      </c>
+      <c r="J77" s="41"/>
+      <c r="K77" s="40">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="40">
+        <v>14</v>
+      </c>
+      <c r="M77" s="40">
+        <v>0</v>
+      </c>
+      <c r="N77" s="40">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="62"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="38" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8866,10 +8888,10 @@
         <v>21</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="38" t="s">
@@ -8883,17 +8905,17 @@
       </c>
       <c r="J78" s="41"/>
       <c r="K78" s="40">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L78" s="40">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="40">
         <v>0</v>
       </c>
       <c r="N78" s="40">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="O78" s="40">
         <v>1</v>
@@ -8902,45 +8924,22 @@
         <v>751</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
-        <v>-25</v>
-      </c>
-      <c r="L79" s="40">
-        <v>30</v>
-      </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
-        <f>(L79-K79)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O79" s="40">
-        <v>1</v>
-      </c>
-      <c r="R79" s="38" t="s">
-        <v>751</v>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="62"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8948,16 +8947,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="62"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8966,10 +8968,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="62"/>
       <c r="G81" s="29" t="s">
@@ -8987,40 +8989,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="62"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="62"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="61"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9029,17 +9028,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="61"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9047,20 +9049,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="61"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9068,58 +9070,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="61"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="61"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="38">
+        <v>0</v>
+      </c>
+      <c r="J88" s="41"/>
+      <c r="K88" s="40">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="40">
+        <v>2</v>
+      </c>
+      <c r="M88" s="40">
+        <v>0</v>
+      </c>
+      <c r="N88" s="40">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>66</v>
+      <c r="R88" s="38" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9127,10 +9149,10 @@
         <v>21</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="38" t="s">
@@ -9147,14 +9169,14 @@
         <v>-6</v>
       </c>
       <c r="L89" s="40">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="40">
         <v>0</v>
       </c>
       <c r="N89" s="40">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O89" s="40">
         <v>1</v>
@@ -9163,111 +9185,113 @@
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="61"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="44"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
-        <v>-6</v>
-      </c>
-      <c r="L90" s="40">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
-        <f>(L90-K90)/6</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="O90" s="40">
+      <c r="H92" s="48"/>
+      <c r="I92" s="48">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
+      <c r="J92" s="48"/>
+      <c r="K92" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="M92" s="40">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="38">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-    </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C93" s="48"/>
       <c r="D93" s="48" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="48" t="s">
@@ -9279,7 +9303,7 @@
       </c>
       <c r="J93" s="48"/>
       <c r="K93" s="48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="48">
         <v>4.5</v>
@@ -9287,8 +9311,7 @@
       <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
-        <f>1.5/6</f>
+      <c r="N93" s="48">
         <v>0.25</v>
       </c>
       <c r="O93" s="48">
@@ -9307,10 +9330,10 @@
       </c>
       <c r="C94" s="48"/>
       <c r="D94" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="48" t="s">
@@ -9322,110 +9345,111 @@
       </c>
       <c r="J94" s="48"/>
       <c r="K94" s="48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="48">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="40">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="40">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="38" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="44"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
+      <c r="B96" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" s="48"/>
+      <c r="D96" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H96" s="48"/>
+      <c r="I96" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J96" s="48"/>
+      <c r="K96" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
-        <v>3</v>
-      </c>
-      <c r="M95" s="40">
+      <c r="L96" s="48">
+        <v>4</v>
+      </c>
+      <c r="M96" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N96" s="38">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O96" s="48">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38" t="s">
         <v>751</v>
       </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C97" s="48"/>
       <c r="D97" s="48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="48" t="s">
@@ -9445,8 +9469,7 @@
       <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
-        <f>1.5/6</f>
+      <c r="N97" s="48">
         <v>0.25</v>
       </c>
       <c r="O97" s="48">
@@ -9465,10 +9488,10 @@
       </c>
       <c r="C98" s="48"/>
       <c r="D98" s="48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="48" t="s">
@@ -9483,186 +9506,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="40">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="40">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="38" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F100" s="61"/>
+      <c r="G100" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
+      <c r="H100" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="54">
         <v>1</v>
       </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="48">
-        <v>3</v>
-      </c>
-      <c r="M99" s="40">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="40">
+      <c r="J100" s="57"/>
+      <c r="K100" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="56">
+        <v>1</v>
+      </c>
+      <c r="M100" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="56">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="56">
         <v>0.1</v>
       </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
+      <c r="R100" s="38" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="E101" s="54" t="s">
-        <v>710</v>
-      </c>
-      <c r="F101" s="61"/>
-      <c r="G101" s="54" t="s">
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
-        <v>1</v>
-      </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="56">
-        <v>1</v>
-      </c>
-      <c r="M101" s="56">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="56">
+      <c r="I101" s="38">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="41"/>
+      <c r="K101" s="40">
+        <v>0</v>
+      </c>
+      <c r="L101" s="40">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="40">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="40">
         <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="56">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O101" s="40">
+        <v>50</v>
       </c>
       <c r="R101" s="38" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="38">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="40">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="40">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="40">
-        <v>50</v>
-      </c>
-      <c r="R102" s="38" t="s">
-        <v>751</v>
-      </c>
+    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>750</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>753</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="F103" s="61"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="61"/>
+      <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9702,7 +9687,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10054,12 +10038,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_calibration_DOE_2013.xlsx
+++ b/projects/SEB_calibration_DOE_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="-216" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2298,48 +2298,9 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Experiment Type</t>
   </si>
   <si>
@@ -2365,6 +2326,45 @@
   </si>
   <si>
     <t>1 or 0 (True or False)</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
   </si>
 </sst>
 </file>
@@ -6659,21 +6659,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6682,7 +6682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6691,7 +6691,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6713,18 +6713,18 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6795,18 +6795,18 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6863,19 +6863,19 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6892,19 +6892,19 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="29" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="29" t="s">
         <v>4</v>
       </c>
@@ -6912,73 +6912,73 @@
         <v>2</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="D23" s="33"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="B24" s="28">
         <v>1E+18</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="30" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="B25" s="29">
         <v>1</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="C29" s="29"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="B30" s="29"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -6991,7 +6991,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A37" s="11" t="s">
         <v>29</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="30" customFormat="1">
       <c r="A38" s="30" t="s">
         <v>31</v>
       </c>
@@ -7028,7 +7028,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A40" s="11" t="s">
         <v>34</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="30" t="s">
         <v>632</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="30" customFormat="1">
       <c r="B42" s="25"/>
       <c r="D42" s="2"/>
     </row>
@@ -7068,7 +7068,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7081,37 +7080,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7147,7 +7146,7 @@
       <c r="Y1" s="64"/>
       <c r="Z1" s="64"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7164,7 +7163,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7241,7 +7240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="35" customFormat="1">
       <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
@@ -7260,7 +7259,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7279,7 +7278,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7298,7 +7297,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7317,7 +7316,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7336,7 +7335,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7355,7 +7354,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7374,7 +7373,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7393,7 +7392,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7412,7 +7411,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7431,7 +7430,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="35" customFormat="1">
       <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
@@ -7450,7 +7449,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7469,7 +7468,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7488,7 +7487,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7507,7 +7506,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7526,7 +7525,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7545,7 +7544,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7564,7 +7563,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7583,7 +7582,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7602,7 +7601,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="43" customFormat="1">
       <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
@@ -7619,7 +7618,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7641,7 +7640,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B25" s="38" t="s">
         <v>22</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7696,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="54" customFormat="1">
       <c r="B27" s="54" t="s">
         <v>21</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7751,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7769,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7787,7 +7786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7805,7 +7804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7824,7 +7823,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="44" customFormat="1">
       <c r="A33" s="44" t="b">
         <v>1</v>
       </c>
@@ -7841,7 +7840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -7871,7 +7870,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15">
       <c r="B35" s="50" t="s">
         <v>21</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -7937,7 +7936,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -7964,7 +7963,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -7991,7 +7990,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8018,7 +8017,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="37"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8045,7 +8044,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8072,7 +8071,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8099,7 +8098,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="44" customFormat="1">
       <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
@@ -8116,7 +8115,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8137,7 +8136,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B45" s="38" t="s">
         <v>22</v>
       </c>
@@ -8178,7 +8177,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8199,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8220,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8241,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8259,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8280,7 +8279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8301,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8322,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="44" t="b">
         <v>1</v>
       </c>
@@ -8339,7 +8338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8360,7 +8359,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B55" s="29" t="s">
         <v>21</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8419,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8440,7 +8439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8461,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8482,7 +8481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8500,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8521,7 +8520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8563,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="44" t="b">
         <v>1</v>
       </c>
@@ -8580,7 +8579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B66" s="29" t="s">
         <v>21</v>
       </c>
@@ -8642,7 +8641,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8723,7 +8722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8741,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8762,7 +8761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="44" t="b">
         <v>1</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B77" s="29" t="s">
         <v>21</v>
       </c>
@@ -8883,7 +8882,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B78" s="29" t="s">
         <v>21</v>
       </c>
@@ -8924,7 +8923,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -8942,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -8963,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -8984,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -9005,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9023,7 +9022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9044,7 +9043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9065,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9086,7 +9085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="44" customFormat="1">
       <c r="A87" s="44" t="b">
         <v>1</v>
       </c>
@@ -9103,7 +9102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B88" s="29" t="s">
         <v>21</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B89" s="29" t="s">
         <v>21</v>
       </c>
@@ -9185,7 +9184,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9208,7 +9207,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="47" t="b">
         <v>1</v>
       </c>
@@ -9238,7 +9237,7 @@
       <c r="Q91" s="44"/>
       <c r="R91" s="44"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="38"/>
       <c r="B92" s="29" t="s">
         <v>21</v>
@@ -9281,7 +9280,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="48"/>
       <c r="B93" s="29" t="s">
         <v>21</v>
@@ -9323,7 +9322,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="48"/>
       <c r="B94" s="29" t="s">
         <v>21</v>
@@ -9366,7 +9365,7 @@
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="47" t="b">
         <v>1</v>
       </c>
@@ -9396,7 +9395,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="44"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="38"/>
       <c r="B96" s="29" t="s">
         <v>21</v>
@@ -9439,7 +9438,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="48"/>
       <c r="B97" s="29" t="s">
         <v>21</v>
@@ -9481,7 +9480,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="48"/>
       <c r="B98" s="29" t="s">
         <v>21</v>
@@ -9523,7 +9522,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="44" t="b">
         <v>1</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="54" customFormat="1">
       <c r="B100" s="54" t="s">
         <v>21</v>
       </c>
@@ -9581,7 +9580,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B101" s="29" t="s">
         <v>21</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="35" customFormat="1">
       <c r="A102" s="35" t="b">
         <v>1</v>
       </c>
@@ -9630,10 +9629,10 @@
         <v>750</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E102" s="35" t="s">
         <v>231</v>
@@ -9641,400 +9640,400 @@
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="61"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10044,7 +10043,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10059,25 +10057,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="58"/>
       <c r="C1" s="5"/>
@@ -10093,7 +10091,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10131,7 +10129,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10170,7 +10168,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10199,14 +10197,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10228,14 +10226,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10257,14 +10255,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10285,14 +10283,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10313,14 +10311,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10341,14 +10339,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10369,14 +10367,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10397,14 +10395,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10425,14 +10423,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10448,14 +10446,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10471,14 +10469,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10494,13 +10492,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10515,180 +10513,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10705,19 +10702,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10736,7 +10733,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10757,7 +10754,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10780,7 +10777,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10803,7 +10800,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10826,7 +10823,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10849,7 +10846,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10872,7 +10869,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10895,7 +10892,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10918,7 +10915,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10941,7 +10938,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10960,7 +10957,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10981,7 +10978,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11004,7 +11001,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11027,7 +11024,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11050,7 +11047,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11073,7 +11070,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11096,7 +11093,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11119,7 +11116,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11142,7 +11139,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11165,7 +11162,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11184,7 +11181,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11207,7 +11204,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11230,7 +11227,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11253,7 +11250,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11276,7 +11273,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11299,7 +11296,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11322,7 +11319,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11345,7 +11342,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11368,7 +11365,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11391,7 +11388,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11410,7 +11407,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11431,7 +11428,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11454,7 +11451,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11477,7 +11474,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11500,7 +11497,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11523,7 +11520,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11546,7 +11543,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11569,7 +11566,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11592,7 +11589,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11615,7 +11612,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11634,7 +11631,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11655,7 +11652,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11678,7 +11675,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11701,7 +11698,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11724,7 +11721,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11747,7 +11744,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11770,7 +11767,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11793,7 +11790,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11816,7 +11813,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11839,7 +11836,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11858,7 +11855,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11879,7 +11876,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11902,7 +11899,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11925,7 +11922,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11948,7 +11945,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11971,7 +11968,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11994,7 +11991,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12017,7 +12014,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12040,7 +12037,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12063,7 +12060,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12082,7 +12079,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12103,7 +12100,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12128,7 +12125,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12151,7 +12148,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12174,7 +12171,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12197,7 +12194,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12220,7 +12217,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12243,7 +12240,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12266,7 +12263,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12289,7 +12286,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12312,7 +12309,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12331,7 +12328,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12352,7 +12349,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12375,7 +12372,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12400,7 +12397,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12423,7 +12420,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12446,7 +12443,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12469,7 +12466,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12492,7 +12489,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12515,7 +12512,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12538,7 +12535,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12561,7 +12558,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12584,7 +12581,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12607,7 +12604,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12630,7 +12627,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12649,7 +12646,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12672,7 +12669,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12695,7 +12692,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12718,7 +12715,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12741,7 +12738,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12764,7 +12761,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12787,7 +12784,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12810,7 +12807,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12833,7 +12830,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12856,7 +12853,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12879,7 +12876,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12898,7 +12895,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12923,7 +12920,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12942,7 +12939,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12963,7 +12960,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12988,7 +12985,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13007,7 +13004,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13030,7 +13027,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13055,7 +13052,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13078,7 +13075,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13099,7 +13096,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13118,7 +13115,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13143,7 +13140,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13166,7 +13163,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13189,7 +13186,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13212,7 +13209,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13235,7 +13232,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13258,7 +13255,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13281,7 +13278,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13300,7 +13297,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13323,7 +13320,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13346,7 +13343,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13369,7 +13366,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13388,7 +13385,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13411,7 +13408,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13434,7 +13431,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13457,7 +13454,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13480,7 +13477,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13503,7 +13500,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13526,7 +13523,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13545,7 +13542,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13570,7 +13567,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13593,7 +13590,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13616,7 +13613,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13639,7 +13636,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13662,7 +13659,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13685,7 +13682,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13708,7 +13705,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13731,7 +13728,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13754,7 +13751,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13773,7 +13770,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13798,7 +13795,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13819,7 +13816,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13842,7 +13839,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13865,7 +13862,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13888,7 +13885,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13911,7 +13908,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13934,7 +13931,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13957,7 +13954,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13980,7 +13977,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14003,7 +14000,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14026,7 +14023,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14049,7 +14046,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14072,7 +14069,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14095,7 +14092,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14114,7 +14111,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14137,7 +14134,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14156,7 +14153,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14179,7 +14176,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14202,7 +14199,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14221,7 +14218,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14246,7 +14243,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14269,7 +14266,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14292,7 +14289,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14315,7 +14312,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14338,7 +14335,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14361,7 +14358,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14384,7 +14381,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14407,7 +14404,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14430,7 +14427,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14453,7 +14450,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14472,7 +14469,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14497,7 +14494,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14520,7 +14517,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14543,7 +14540,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14566,7 +14563,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14589,7 +14586,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14612,7 +14609,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14635,7 +14632,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14658,7 +14655,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14681,7 +14678,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14704,7 +14701,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14723,7 +14720,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14746,7 +14743,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14769,7 +14766,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14792,7 +14789,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14815,7 +14812,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14834,7 +14831,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14857,7 +14854,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14880,7 +14877,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14903,7 +14900,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14926,7 +14923,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14945,7 +14942,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14966,7 +14963,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14989,7 +14986,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15008,7 +15005,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15031,7 +15028,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15056,7 +15053,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15077,7 +15074,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15102,7 +15099,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15127,7 +15124,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15146,7 +15143,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15171,7 +15168,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15194,7 +15191,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15217,7 +15214,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15240,7 +15237,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15263,7 +15260,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15286,7 +15283,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15309,7 +15306,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15332,7 +15329,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15355,7 +15352,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15374,7 +15371,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15399,7 +15396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15422,7 +15419,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15445,7 +15442,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15468,7 +15465,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15491,7 +15488,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15514,7 +15511,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15537,7 +15534,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15560,7 +15557,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15583,7 +15580,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15602,7 +15599,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15623,7 +15620,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15646,7 +15643,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15669,7 +15666,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15692,7 +15689,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15715,7 +15712,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15738,7 +15735,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15761,7 +15758,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15784,7 +15781,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15807,7 +15804,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15830,7 +15827,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15853,7 +15850,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15876,7 +15873,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15899,7 +15896,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15922,7 +15919,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15945,7 +15942,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15968,7 +15965,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15987,7 +15984,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16008,7 +16005,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16031,7 +16028,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16054,7 +16051,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16077,7 +16074,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16100,7 +16097,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16123,7 +16120,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16146,7 +16143,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16169,7 +16166,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16192,7 +16189,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16215,7 +16212,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16238,7 +16235,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16261,7 +16258,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16284,7 +16281,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16307,7 +16304,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16330,7 +16327,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16353,7 +16350,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16372,7 +16369,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16397,7 +16394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16420,7 +16417,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16443,7 +16440,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16466,7 +16463,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16489,7 +16486,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16508,7 +16505,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16533,7 +16530,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16556,7 +16553,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16575,7 +16572,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16594,7 +16591,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16613,7 +16610,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16634,7 +16631,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16657,7 +16654,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16680,7 +16677,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16703,7 +16700,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16726,7 +16723,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16749,7 +16746,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16772,7 +16769,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16795,7 +16792,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16818,7 +16815,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16841,7 +16838,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16864,7 +16861,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16883,7 +16880,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16906,7 +16903,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16925,7 +16922,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16950,7 +16947,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16973,7 +16970,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16996,7 +16993,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17019,7 +17016,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17042,7 +17039,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17065,7 +17062,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17088,7 +17085,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17111,7 +17108,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17134,7 +17131,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17157,7 +17154,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17180,7 +17177,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17199,7 +17196,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17222,7 +17219,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17241,7 +17238,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17262,7 +17259,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17281,7 +17278,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17302,7 +17299,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17321,7 +17318,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17342,7 +17339,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17361,7 +17358,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17384,7 +17381,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17403,7 +17400,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17428,7 +17425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17451,7 +17448,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17474,7 +17471,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17497,7 +17494,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17520,7 +17517,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17543,7 +17540,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17566,7 +17563,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17589,7 +17586,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17612,7 +17609,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17631,7 +17628,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17654,7 +17651,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17677,7 +17674,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17700,7 +17697,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17723,7 +17720,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17742,7 +17739,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17765,7 +17762,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17788,7 +17785,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17813,7 +17810,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17832,7 +17829,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17857,7 +17854,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17880,7 +17877,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17899,7 +17896,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17920,7 +17917,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17941,7 +17938,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17964,7 +17961,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17983,7 +17980,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18002,7 +17999,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18027,7 +18024,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18052,7 +18049,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18066,7 +18063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18089,7 +18086,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18109,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18129,7 +18126,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18149,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18166,7 +18163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18189,7 +18186,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18212,7 +18209,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18226,7 +18223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18249,7 +18246,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18272,7 +18269,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18292,7 +18289,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18312,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18329,7 +18326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18355,7 +18352,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18384,7 +18381,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18423,7 +18420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18437,7 +18434,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18457,7 +18454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18471,7 +18468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18491,7 +18488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18511,7 +18508,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18531,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18551,7 +18548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18571,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18591,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18611,7 +18608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18631,7 +18628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18651,7 +18648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18665,7 +18662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18685,7 +18682,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18705,7 +18702,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18721,7 +18718,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18747,7 +18744,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18788,7 +18785,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18802,7 +18799,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18822,7 +18819,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18836,7 +18833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18858,7 +18855,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18875,17 +18871,17 @@
       <selection activeCell="O17" sqref="O17:Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -18896,7 +18892,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -18910,7 +18906,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -18924,7 +18920,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -18938,7 +18934,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -18952,7 +18948,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -18966,7 +18962,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -18980,7 +18976,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -18994,7 +18990,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -19008,7 +19004,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19022,7 +19018,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19036,7 +19032,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19047,8 +19043,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19074,7 +19070,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19115,7 +19111,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19156,7 +19152,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19188,7 +19184,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19220,7 +19216,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19249,7 +19245,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19281,7 +19277,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19301,7 +19297,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19324,7 +19320,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19335,7 +19331,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19343,7 +19339,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19356,7 +19352,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
